--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PROJECT\UiPath\HomeWork\walkthrough1\ReFrameWork-master\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\UiPathLevel3WalkThrough1\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11880" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11880"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -155,9 +155,6 @@
     <t>OrchestratorQueueName</t>
   </si>
   <si>
-    <t>KibanaDemoQueue</t>
-  </si>
-  <si>
     <t>Orchestrator Queue Name. Be sure to match this name with the one from the server.</t>
   </si>
   <si>
@@ -183,6 +180,10 @@
   </si>
   <si>
     <t>http://www.sha1-online.com/</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>queue1</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -532,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -582,39 +583,39 @@
       <c r="A2" t="s">
         <v>43</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
         <v>44</v>
-      </c>
-      <c r="C2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
         <v>46</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>47</v>
-      </c>
-      <c r="C4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1622,7 +1623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
